--- a/files/TARRANT COUNTY.xlsx
+++ b/files/TARRANT COUNTY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1608A6-683B-F540-BFA5-A9EF7DA0BD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA444DF-A630-994F-809D-3683DC3A6117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M-Apr11" sheetId="1" r:id="rId1"/>
@@ -923,9 +923,6 @@
     <t>Charles Madison</t>
   </si>
   <si>
-    <t>1614 Pecan Chase Cir #66</t>
-  </si>
-  <si>
     <t>Arlington, TX</t>
   </si>
   <si>
@@ -1010,9 +1007,6 @@
     <t>Erica M Anaya</t>
   </si>
   <si>
-    <t>2230 Juniper St</t>
-  </si>
-  <si>
     <t>Haltom City, TX</t>
   </si>
   <si>
@@ -1025,9 +1019,6 @@
     <t>Select Real Prop Holdings</t>
   </si>
   <si>
-    <t>4078 E Peninsula Club Cir</t>
-  </si>
-  <si>
     <t>Altavista Home Investments Llc</t>
   </si>
   <si>
@@ -1035,6 +1026,15 @@
   </si>
   <si>
     <t>Benbrook, TX</t>
+  </si>
+  <si>
+    <t>2320 Juniper St</t>
+  </si>
+  <si>
+    <t>4078 Peninsula Club Cir E</t>
+  </si>
+  <si>
+    <t>1614 Pecan Chase Cir # 66</t>
   </si>
 </sst>
 </file>
@@ -1391,9 +1391,9 @@
   </sheetPr>
   <dimension ref="A1:Y970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28559,7 +28559,7 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -28657,10 +28657,10 @@
         <v>299</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="9">
         <v>76012</v>
@@ -28691,13 +28691,13 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D4" s="9">
         <v>76014</v>
@@ -28728,13 +28728,13 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="D5" s="9">
         <v>76020</v>
@@ -28765,13 +28765,13 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="D6" s="9">
         <v>76036</v>
@@ -28802,13 +28802,13 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>311</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="9">
         <v>76036</v>
@@ -28839,13 +28839,13 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="D8" s="9">
         <v>76063</v>
@@ -28876,13 +28876,13 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>316</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D9" s="9">
         <v>76063</v>
@@ -28913,13 +28913,13 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="D10" s="9">
         <v>76110</v>
@@ -28950,13 +28950,13 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>321</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D11" s="9">
         <v>76111</v>
@@ -28987,13 +28987,13 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>323</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D12" s="9">
         <v>76111</v>
@@ -29024,13 +29024,13 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>325</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D13" s="9">
         <v>76111</v>
@@ -29061,13 +29061,13 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>327</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D14" s="9">
         <v>76112</v>
@@ -29098,13 +29098,13 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D15" s="9">
         <v>76117</v>
@@ -29135,13 +29135,13 @@
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D16" s="9">
         <v>76123</v>
@@ -29172,13 +29172,13 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" s="9">
         <v>76135</v>
@@ -29209,13 +29209,13 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D18" s="9">
         <v>76216</v>

--- a/files/TARRANT COUNTY.xlsx
+++ b/files/TARRANT COUNTY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA444DF-A630-994F-809D-3683DC3A6117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BE738B-03F2-8A45-8868-203E4003284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M-Apr11" sheetId="1" r:id="rId1"/>
@@ -28561,7 +28561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
